--- a/Experimentos/teste_geral/Dataset3/statistic_average_fitness.xlsx
+++ b/Experimentos/teste_geral/Dataset3/statistic_average_fitness.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\ESCOLA\2ano\2semestre\INTELIGENCIA-ARTIFICIAL\projeto-IA\Experimentos\teste_geral\Dataset3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348F8821-39DC-4B3B-800D-28A98138ABEC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB32740-1B96-4194-9B03-424F1AB26B94}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-5595" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="statistic_average_fitness" sheetId="1" r:id="rId1"/>
@@ -641,7 +641,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A2:L130" totalsRowShown="0">
   <autoFilter ref="A2:L130" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:L130">
-    <sortCondition ref="F2:F130"/>
+    <sortCondition ref="I2:I130"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Population size:"/>
@@ -960,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I130" sqref="I130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,31 +1042,31 @@
         <v>1500</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0.8</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I3">
-        <v>220.72</v>
+        <v>185.72</v>
       </c>
       <c r="J3">
-        <v>15.4596765813518</v>
+        <v>13.954268164257099</v>
       </c>
       <c r="K3">
-        <v>1977.1</v>
+        <v>1792.04</v>
       </c>
       <c r="L3">
-        <v>3137.82</v>
+        <v>3370.94</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1080,33 +1080,33 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E4">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I4">
-        <v>228.84</v>
+        <v>186.72</v>
       </c>
       <c r="J4">
-        <v>15.487233452104901</v>
+        <v>13.645570709941</v>
       </c>
       <c r="K4">
-        <v>2011.92</v>
+        <v>1953.2</v>
       </c>
       <c r="L4">
-        <v>3110.16</v>
+        <v>3542.4</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B5">
         <v>1500</v>
@@ -1115,28 +1115,28 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E5">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I5">
-        <v>238.64</v>
+        <v>188.72</v>
       </c>
       <c r="J5">
-        <v>19.9015175300779</v>
+        <v>14.393109462517099</v>
       </c>
       <c r="K5">
-        <v>1166.58</v>
+        <v>2309.66</v>
       </c>
       <c r="L5">
-        <v>1735.14</v>
+        <v>3533.9</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1147,31 +1147,31 @@
         <v>1500</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
       <c r="E6">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6">
         <v>0.4</v>
       </c>
       <c r="I6">
-        <v>245.16</v>
+        <v>189.76</v>
       </c>
       <c r="J6">
-        <v>18.4221171421745</v>
+        <v>16.063075670617899</v>
       </c>
       <c r="K6">
-        <v>1433.4</v>
+        <v>1891.22</v>
       </c>
       <c r="L6">
-        <v>3583.84</v>
+        <v>3386.82</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1188,95 +1188,95 @@
         <v>10</v>
       </c>
       <c r="E7">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7">
         <v>0.4</v>
       </c>
       <c r="I7">
-        <v>245.16</v>
+        <v>191.72</v>
       </c>
       <c r="J7">
-        <v>17.408457714570801</v>
+        <v>14.718749946921401</v>
       </c>
       <c r="K7">
-        <v>1619.98</v>
+        <v>1581.36</v>
       </c>
       <c r="L7">
-        <v>3102.26</v>
+        <v>3092.86</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B8">
         <v>1500</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
       <c r="E8">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I8">
-        <v>246</v>
+        <v>192.04</v>
       </c>
       <c r="J8">
-        <v>20.3174801587204</v>
+        <v>14.634151837397299</v>
       </c>
       <c r="K8">
-        <v>1136.06</v>
+        <v>1085.6199999999999</v>
       </c>
       <c r="L8">
-        <v>1620.16</v>
+        <v>3093</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B9">
         <v>1500</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0.7</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9">
         <v>0.4</v>
       </c>
       <c r="I9">
-        <v>247.76</v>
+        <v>192.08</v>
       </c>
       <c r="J9">
-        <v>16.907465806560101</v>
+        <v>16.9042479868227</v>
       </c>
       <c r="K9">
-        <v>2173.04</v>
+        <v>1161.1600000000001</v>
       </c>
       <c r="L9">
-        <v>3037.66</v>
+        <v>1830.54</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1290,63 +1290,63 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0.7</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10">
         <v>0.4</v>
       </c>
       <c r="I10">
-        <v>251.84</v>
+        <v>193.2</v>
       </c>
       <c r="J10">
-        <v>22.331466588650098</v>
+        <v>16.965848048358701</v>
       </c>
       <c r="K10">
-        <v>1013.12</v>
+        <v>883.72</v>
       </c>
       <c r="L10">
-        <v>1523.56</v>
+        <v>1655.18</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B11">
         <v>1500</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
       </c>
       <c r="E11">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11">
         <v>0.4</v>
       </c>
       <c r="I11">
-        <v>252.48</v>
+        <v>194.08</v>
       </c>
       <c r="J11">
-        <v>19.434237829150899</v>
+        <v>17.458338981701498</v>
       </c>
       <c r="K11">
-        <v>1259.9000000000001</v>
+        <v>859.76</v>
       </c>
       <c r="L11">
-        <v>3749.9</v>
+        <v>1696.12</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1357,7 +1357,7 @@
         <v>1500</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -1366,57 +1366,57 @@
         <v>0.7</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G12">
         <v>0.4</v>
       </c>
       <c r="I12">
-        <v>255.68</v>
+        <v>194.52</v>
       </c>
       <c r="J12">
-        <v>20.168728269278599</v>
+        <v>14.515150705383601</v>
       </c>
       <c r="K12">
-        <v>1972.68</v>
+        <v>2065.86</v>
       </c>
       <c r="L12">
-        <v>3078.22</v>
+        <v>3143.32</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B13">
         <v>1500</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>0.7</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I13">
-        <v>260.39999999999998</v>
+        <v>194.92</v>
       </c>
       <c r="J13">
-        <v>29.12868002502</v>
+        <v>14.506329652948001</v>
       </c>
       <c r="K13">
-        <v>1477.42</v>
+        <v>1813.74</v>
       </c>
       <c r="L13">
-        <v>2010.12</v>
+        <v>3357.82</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1427,7 +1427,7 @@
         <v>1500</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -1436,22 +1436,22 @@
         <v>0.8</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G14">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I14">
-        <v>265.12</v>
+        <v>195.2</v>
       </c>
       <c r="J14">
-        <v>21.544966929656599</v>
+        <v>12.9367693030369</v>
       </c>
       <c r="K14">
-        <v>522.36</v>
+        <v>1984.82</v>
       </c>
       <c r="L14">
-        <v>3057.56</v>
+        <v>3197.18</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1462,36 +1462,36 @@
         <v>1500</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
       </c>
       <c r="E15">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G15">
         <v>0.2</v>
       </c>
       <c r="I15">
-        <v>269.72000000000003</v>
+        <v>195.24</v>
       </c>
       <c r="J15">
-        <v>19.233346042745598</v>
+        <v>18.632831239508299</v>
       </c>
       <c r="K15">
-        <v>870.26</v>
+        <v>1540.6</v>
       </c>
       <c r="L15">
-        <v>3526.72</v>
+        <v>3360.16</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B16">
         <v>1500</v>
@@ -1506,57 +1506,57 @@
         <v>0.8</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G16">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I16">
-        <v>269.92</v>
+        <v>195.32</v>
       </c>
       <c r="J16">
-        <v>20.845949246796099</v>
+        <v>12.004065977826</v>
       </c>
       <c r="K16">
-        <v>881.24</v>
+        <v>1215.1600000000001</v>
       </c>
       <c r="L16">
-        <v>3554.2</v>
+        <v>1870.5</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B17">
         <v>1500</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E17">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G17">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I17">
-        <v>270.24</v>
+        <v>197.28</v>
       </c>
       <c r="J17">
-        <v>23.0742800537741</v>
+        <v>15.4078421591084</v>
       </c>
       <c r="K17">
-        <v>1828.82</v>
+        <v>1005.92</v>
       </c>
       <c r="L17">
-        <v>2855.64</v>
+        <v>1955.52</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1573,30 +1573,30 @@
         <v>14</v>
       </c>
       <c r="E18">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G18">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I18">
-        <v>272.76</v>
+        <v>197.72</v>
       </c>
       <c r="J18">
-        <v>18.6499973190346</v>
+        <v>14.571259382771199</v>
       </c>
       <c r="K18">
-        <v>921.28</v>
+        <v>1082.32</v>
       </c>
       <c r="L18">
-        <v>1871.3</v>
+        <v>1807.12</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B19">
         <v>1500</v>
@@ -1605,28 +1605,28 @@
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E19">
         <v>0.7</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G19">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I19">
-        <v>273.12</v>
+        <v>198.12</v>
       </c>
       <c r="J19">
-        <v>20.3810107698318</v>
+        <v>13.4902038531669</v>
       </c>
       <c r="K19">
-        <v>1506.6</v>
+        <v>970.42</v>
       </c>
       <c r="L19">
-        <v>2951.94</v>
+        <v>1708.48</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1637,42 +1637,42 @@
         <v>1500</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
       </c>
       <c r="E20">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G20">
         <v>0.4</v>
       </c>
       <c r="I20">
-        <v>274</v>
+        <v>198.32</v>
       </c>
       <c r="J20">
-        <v>19.2416215532891</v>
+        <v>14.474031919268301</v>
       </c>
       <c r="K20">
-        <v>928.08</v>
+        <v>1122.2</v>
       </c>
       <c r="L20">
-        <v>1721.38</v>
+        <v>1748.16</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B21">
         <v>1500</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
@@ -1681,22 +1681,22 @@
         <v>0.8</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G21">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I21">
-        <v>275.12</v>
+        <v>198.6</v>
       </c>
       <c r="J21">
-        <v>21.279699245994902</v>
+        <v>12.2392810246353</v>
       </c>
       <c r="K21">
-        <v>1004.9</v>
+        <v>1505.68</v>
       </c>
       <c r="L21">
-        <v>1715.86</v>
+        <v>3106.38</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1707,31 +1707,31 @@
         <v>1500</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E22">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G22">
         <v>0.4</v>
       </c>
       <c r="I22">
-        <v>276.39999999999998</v>
+        <v>199.4</v>
       </c>
       <c r="J22">
-        <v>22.385709727413101</v>
+        <v>16.2</v>
       </c>
       <c r="K22">
-        <v>818.78</v>
+        <v>840.32</v>
       </c>
       <c r="L22">
-        <v>1834.86</v>
+        <v>1734.46</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1745,28 +1745,28 @@
         <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E23">
         <v>0.7</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G23">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I23">
-        <v>279.36</v>
+        <v>199.64</v>
       </c>
       <c r="J23">
-        <v>24.958974337900901</v>
+        <v>15.741359534678001</v>
       </c>
       <c r="K23">
-        <v>753.08</v>
+        <v>1816.4</v>
       </c>
       <c r="L23">
-        <v>3044.62</v>
+        <v>3026.68</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1777,7 +1777,7 @@
         <v>1500</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
         <v>14</v>
@@ -1786,57 +1786,57 @@
         <v>0.8</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G24">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I24">
-        <v>279.64</v>
+        <v>199.68</v>
       </c>
       <c r="J24">
-        <v>20.714014579506301</v>
+        <v>14.818151031758299</v>
       </c>
       <c r="K24">
-        <v>330.4</v>
+        <v>1867.32</v>
       </c>
       <c r="L24">
-        <v>3377.9</v>
+        <v>3526.36</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B25">
         <v>1500</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E25">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G25">
         <v>0.2</v>
       </c>
       <c r="I25">
-        <v>281.2</v>
+        <v>199.76</v>
       </c>
       <c r="J25">
-        <v>24.25860672009</v>
+        <v>15.417600332088</v>
       </c>
       <c r="K25">
-        <v>788.86</v>
+        <v>2007.86</v>
       </c>
       <c r="L25">
-        <v>1496.78</v>
+        <v>3562.9</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1847,36 +1847,36 @@
         <v>1500</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E26">
         <v>0.7</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G26">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I26">
-        <v>285.27999999999997</v>
+        <v>200.16</v>
       </c>
       <c r="J26">
-        <v>21.3869492915656</v>
+        <v>15.429011633931699</v>
       </c>
       <c r="K26">
-        <v>829.9</v>
+        <v>1386.5</v>
       </c>
       <c r="L26">
-        <v>3359.98</v>
+        <v>3113.14</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B27">
         <v>1500</v>
@@ -1885,28 +1885,28 @@
         <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E27">
         <v>0.7</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G27">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I27">
-        <v>288.83999999999997</v>
+        <v>200.16</v>
       </c>
       <c r="J27">
-        <v>21.792071952891401</v>
+        <v>14.597753251785001</v>
       </c>
       <c r="K27">
-        <v>829.54</v>
+        <v>1610.66</v>
       </c>
       <c r="L27">
-        <v>1502.26</v>
+        <v>3022.9</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1926,22 +1926,22 @@
         <v>0.8</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G28">
         <v>0.2</v>
       </c>
       <c r="I28">
-        <v>292.16000000000003</v>
+        <v>200.72</v>
       </c>
       <c r="J28">
-        <v>17.8564946168053</v>
+        <v>17.475743188774501</v>
       </c>
       <c r="K28">
-        <v>566.44000000000005</v>
+        <v>1115.8399999999999</v>
       </c>
       <c r="L28">
-        <v>1853.68</v>
+        <v>1833.54</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1955,33 +1955,33 @@
         <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E29">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G29">
         <v>0.2</v>
       </c>
       <c r="I29">
-        <v>293.76</v>
+        <v>201.76</v>
       </c>
       <c r="J29">
-        <v>25.548823847684201</v>
+        <v>17.267958767613401</v>
       </c>
       <c r="K29">
-        <v>419.18</v>
+        <v>974.52</v>
       </c>
       <c r="L29">
-        <v>1704.9</v>
+        <v>1641.7</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B30">
         <v>1500</v>
@@ -1990,28 +1990,28 @@
         <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E30">
         <v>0.8</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G30">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I30">
-        <v>296.60000000000002</v>
+        <v>203.44</v>
       </c>
       <c r="J30">
-        <v>20.739334608419799</v>
+        <v>17.591088653065199</v>
       </c>
       <c r="K30">
-        <v>577.4</v>
+        <v>758.72</v>
       </c>
       <c r="L30">
-        <v>3347.78</v>
+        <v>1554.52</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -2025,63 +2025,63 @@
         <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E31">
         <v>0.7</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G31">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I31">
-        <v>297</v>
+        <v>203.68</v>
       </c>
       <c r="J31">
-        <v>21.541587685219401</v>
+        <v>16.2547716071312</v>
       </c>
       <c r="K31">
-        <v>955.72</v>
+        <v>1139.8</v>
       </c>
       <c r="L31">
-        <v>3029.7</v>
+        <v>3059.44</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B32">
         <v>1500</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E32">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G32">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I32">
-        <v>300.08</v>
+        <v>204.24</v>
       </c>
       <c r="J32">
-        <v>22.768258607104698</v>
+        <v>17.277221998921</v>
       </c>
       <c r="K32">
-        <v>785.6</v>
+        <v>947.96</v>
       </c>
       <c r="L32">
-        <v>3104.78</v>
+        <v>1970.62</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -2095,28 +2095,28 @@
         <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E33">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G33">
         <v>0.2</v>
       </c>
       <c r="I33">
-        <v>300.32</v>
+        <v>204.28</v>
       </c>
       <c r="J33">
-        <v>21.197584768081398</v>
+        <v>14.8862889935672</v>
       </c>
       <c r="K33">
-        <v>542.88</v>
+        <v>862</v>
       </c>
       <c r="L33">
-        <v>1703.5</v>
+        <v>1684.96</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -2130,28 +2130,28 @@
         <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E34">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G34">
         <v>0.2</v>
       </c>
       <c r="I34">
-        <v>300.60000000000002</v>
+        <v>204.56</v>
       </c>
       <c r="J34">
-        <v>21.219802072592401</v>
+        <v>18.3304773533042</v>
       </c>
       <c r="K34">
-        <v>736.28</v>
+        <v>1062.08</v>
       </c>
       <c r="L34">
-        <v>3280.46</v>
+        <v>3111.08</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -2162,31 +2162,31 @@
         <v>1500</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E35">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G35">
         <v>0.2</v>
       </c>
       <c r="I35">
-        <v>300.8</v>
+        <v>204.88</v>
       </c>
       <c r="J35">
-        <v>24</v>
+        <v>15.079310329056799</v>
       </c>
       <c r="K35">
-        <v>585.78</v>
+        <v>666.6</v>
       </c>
       <c r="L35">
-        <v>1840.34</v>
+        <v>1714.78</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -2200,28 +2200,28 @@
         <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E36">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G36">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I36">
-        <v>302.64</v>
+        <v>206.04</v>
       </c>
       <c r="J36">
-        <v>22.910050196365699</v>
+        <v>16.126946394156501</v>
       </c>
       <c r="K36">
-        <v>473.46</v>
+        <v>759.94</v>
       </c>
       <c r="L36">
-        <v>1699.46</v>
+        <v>1709.44</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2235,33 +2235,33 @@
         <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E37">
         <v>0.7</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G37">
         <v>0.4</v>
       </c>
       <c r="I37">
-        <v>308.60000000000002</v>
+        <v>206.56</v>
       </c>
       <c r="J37">
-        <v>25.5601251953115</v>
+        <v>18.387125930933301</v>
       </c>
       <c r="K37">
-        <v>602.28</v>
+        <v>812.32</v>
       </c>
       <c r="L37">
-        <v>1683.9</v>
+        <v>1524.52</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B38">
         <v>1500</v>
@@ -2276,22 +2276,22 @@
         <v>0.7</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G38">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I38">
-        <v>309.36</v>
+        <v>207</v>
       </c>
       <c r="J38">
-        <v>26.768459051652499</v>
+        <v>17.349351572897401</v>
       </c>
       <c r="K38">
-        <v>827.58</v>
+        <v>871.16</v>
       </c>
       <c r="L38">
-        <v>2976.62</v>
+        <v>1674.38</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2311,22 +2311,22 @@
         <v>0.8</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G39">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I39">
-        <v>310.56</v>
+        <v>207.08</v>
       </c>
       <c r="J39">
-        <v>21.402953067275501</v>
+        <v>18.234955442775199</v>
       </c>
       <c r="K39">
-        <v>612.88</v>
+        <v>1276.96</v>
       </c>
       <c r="L39">
-        <v>3045.44</v>
+        <v>3094.68</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2340,28 +2340,28 @@
         <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E40">
         <v>0.7</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G40">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I40">
-        <v>313.83999999999997</v>
+        <v>209.08</v>
       </c>
       <c r="J40">
-        <v>18.760980784596502</v>
+        <v>15.5805519799524</v>
       </c>
       <c r="K40">
-        <v>305.48</v>
+        <v>627.1</v>
       </c>
       <c r="L40">
-        <v>1661.58</v>
+        <v>1657.74</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -2372,36 +2372,36 @@
         <v>1500</v>
       </c>
       <c r="C41" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E41">
         <v>0.8</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G41">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I41">
-        <v>315.12</v>
+        <v>209.4</v>
       </c>
       <c r="J41">
-        <v>24.387406586187002</v>
+        <v>18.522418848519699</v>
       </c>
       <c r="K41">
-        <v>396.06</v>
+        <v>791.68</v>
       </c>
       <c r="L41">
-        <v>1545.7</v>
+        <v>1733.7</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B42">
         <v>1500</v>
@@ -2410,28 +2410,28 @@
         <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E42">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G42">
         <v>0.2</v>
       </c>
       <c r="I42">
-        <v>315.72000000000003</v>
+        <v>210.12</v>
       </c>
       <c r="J42">
-        <v>18.3521551867893</v>
+        <v>17.5426793848602</v>
       </c>
       <c r="K42">
-        <v>335.7</v>
+        <v>1023.88</v>
       </c>
       <c r="L42">
-        <v>1687.52</v>
+        <v>2943.18</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2442,36 +2442,36 @@
         <v>1500</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E43">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G43">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I43">
-        <v>318.52</v>
+        <v>211</v>
       </c>
       <c r="J43">
-        <v>33.834443988338201</v>
+        <v>16.546903033498399</v>
       </c>
       <c r="K43">
-        <v>1858.64</v>
+        <v>1037.98</v>
       </c>
       <c r="L43">
-        <v>3453.52</v>
+        <v>3016.46</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B44">
         <v>1500</v>
@@ -2480,28 +2480,28 @@
         <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E44">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G44">
         <v>0.2</v>
       </c>
       <c r="I44">
-        <v>321.04000000000002</v>
+        <v>211.36</v>
       </c>
       <c r="J44">
-        <v>22.131389472873099</v>
+        <v>17.7197742649278</v>
       </c>
       <c r="K44">
-        <v>379.74</v>
+        <v>1622.46</v>
       </c>
       <c r="L44">
-        <v>1647.16</v>
+        <v>2874.72</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2515,33 +2515,33 @@
         <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E45">
         <v>0.8</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G45">
         <v>0.2</v>
       </c>
       <c r="I45">
-        <v>321.92</v>
+        <v>212.16</v>
       </c>
       <c r="J45">
-        <v>23.385328734058799</v>
+        <v>18.0126177997535</v>
       </c>
       <c r="K45">
-        <v>331.7</v>
+        <v>779.58</v>
       </c>
       <c r="L45">
-        <v>1528.52</v>
+        <v>1491.16</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B46">
         <v>1500</v>
@@ -2556,22 +2556,22 @@
         <v>0.7</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G46">
         <v>0.2</v>
       </c>
       <c r="I46">
-        <v>323.2</v>
+        <v>212.84</v>
       </c>
       <c r="J46">
-        <v>27.724357521861499</v>
+        <v>18.339422019245799</v>
       </c>
       <c r="K46">
-        <v>449.6</v>
+        <v>1144.54</v>
       </c>
       <c r="L46">
-        <v>1658.98</v>
+        <v>3008.32</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2582,31 +2582,31 @@
         <v>1500</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E47">
         <v>0.8</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G47">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I47">
-        <v>332.68</v>
+        <v>214.32</v>
       </c>
       <c r="J47">
-        <v>24.568630405457998</v>
+        <v>15.1121672833515</v>
       </c>
       <c r="K47">
-        <v>1058.1199999999999</v>
+        <v>536.55999999999995</v>
       </c>
       <c r="L47">
-        <v>1927.74</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2623,25 +2623,25 @@
         <v>15</v>
       </c>
       <c r="E48">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G48">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I48">
-        <v>334.32</v>
+        <v>215.24</v>
       </c>
       <c r="J48">
-        <v>27.534298611005099</v>
+        <v>19.2826969068125</v>
       </c>
       <c r="K48">
-        <v>901.42</v>
+        <v>530.52</v>
       </c>
       <c r="L48">
-        <v>1645.88</v>
+        <v>1498.6</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2664,24 +2664,24 @@
         <v>11</v>
       </c>
       <c r="G49">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I49">
-        <v>352.28</v>
+        <v>220.72</v>
       </c>
       <c r="J49">
-        <v>8.5604672769656602</v>
+        <v>15.4596765813518</v>
       </c>
       <c r="K49">
-        <v>1969.94</v>
+        <v>1977.1</v>
       </c>
       <c r="L49">
-        <v>3511.44</v>
+        <v>3137.82</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B50">
         <v>1500</v>
@@ -2690,7 +2690,7 @@
         <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E50">
         <v>0.7</v>
@@ -2702,56 +2702,56 @@
         <v>0.2</v>
       </c>
       <c r="I50">
-        <v>369.32</v>
+        <v>228.84</v>
       </c>
       <c r="J50">
-        <v>15.0232353373033</v>
+        <v>15.487233452104901</v>
       </c>
       <c r="K50">
-        <v>945.64</v>
+        <v>2011.92</v>
       </c>
       <c r="L50">
-        <v>1830.62</v>
+        <v>3110.16</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B51">
         <v>1500</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E51">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G51">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I51">
-        <v>371.2</v>
+        <v>230.04</v>
       </c>
       <c r="J51">
-        <v>11.530828244319601</v>
+        <v>18.9672981734352</v>
       </c>
       <c r="K51">
-        <v>1752.16</v>
+        <v>1007.06</v>
       </c>
       <c r="L51">
-        <v>3309.08</v>
+        <v>1591.08</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B52">
         <v>1500</v>
@@ -2760,28 +2760,28 @@
         <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E52">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F52" t="s">
         <v>11</v>
       </c>
       <c r="G52">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I52">
-        <v>371.92</v>
+        <v>238.64</v>
       </c>
       <c r="J52">
-        <v>9.6826442669345205</v>
+        <v>19.9015175300779</v>
       </c>
       <c r="K52">
-        <v>1715.4</v>
+        <v>1166.58</v>
       </c>
       <c r="L52">
-        <v>3315.86</v>
+        <v>1735.14</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -2795,7 +2795,7 @@
         <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E53">
         <v>0.8</v>
@@ -2804,19 +2804,19 @@
         <v>11</v>
       </c>
       <c r="G53">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I53">
-        <v>375.04</v>
+        <v>245.16</v>
       </c>
       <c r="J53">
-        <v>10.0974452214409</v>
+        <v>18.4221171421745</v>
       </c>
       <c r="K53">
-        <v>1466.84</v>
+        <v>1433.4</v>
       </c>
       <c r="L53">
-        <v>3325.14</v>
+        <v>3583.84</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -2830,7 +2830,7 @@
         <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E54">
         <v>0.8</v>
@@ -2842,16 +2842,16 @@
         <v>0.4</v>
       </c>
       <c r="I54">
-        <v>375.88</v>
+        <v>245.16</v>
       </c>
       <c r="J54">
-        <v>13.1782244631057</v>
+        <v>17.408457714570801</v>
       </c>
       <c r="K54">
-        <v>1881.68</v>
+        <v>1619.98</v>
       </c>
       <c r="L54">
-        <v>3182.72</v>
+        <v>3102.26</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -2865,7 +2865,7 @@
         <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E55">
         <v>0.7</v>
@@ -2874,19 +2874,19 @@
         <v>11</v>
       </c>
       <c r="G55">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I55">
-        <v>376.44</v>
+        <v>246</v>
       </c>
       <c r="J55">
-        <v>10.978451621244201</v>
+        <v>20.3174801587204</v>
       </c>
       <c r="K55">
-        <v>882.8</v>
+        <v>1136.06</v>
       </c>
       <c r="L55">
-        <v>1832.98</v>
+        <v>1620.16</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -2897,13 +2897,13 @@
         <v>1500</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E56">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F56" t="s">
         <v>11</v>
@@ -2912,16 +2912,16 @@
         <v>0.4</v>
       </c>
       <c r="I56">
-        <v>380</v>
+        <v>247.76</v>
       </c>
       <c r="J56">
-        <v>10.537551897855501</v>
+        <v>16.907465806560101</v>
       </c>
       <c r="K56">
-        <v>1615.66</v>
+        <v>2173.04</v>
       </c>
       <c r="L56">
-        <v>3338.38</v>
+        <v>3037.66</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -2932,13 +2932,13 @@
         <v>1500</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D57" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E57">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F57" t="s">
         <v>11</v>
@@ -2947,21 +2947,21 @@
         <v>0.4</v>
       </c>
       <c r="I57">
-        <v>380.96</v>
+        <v>251.84</v>
       </c>
       <c r="J57">
-        <v>10.285834919927501</v>
+        <v>22.331466588650098</v>
       </c>
       <c r="K57">
-        <v>816</v>
+        <v>1013.12</v>
       </c>
       <c r="L57">
-        <v>1863.7</v>
+        <v>1523.56</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B58">
         <v>1500</v>
@@ -2970,28 +2970,28 @@
         <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E58">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F58" t="s">
         <v>11</v>
       </c>
       <c r="G58">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I58">
-        <v>381.04</v>
+        <v>252.48</v>
       </c>
       <c r="J58">
-        <v>10.160629901733399</v>
+        <v>19.434237829150899</v>
       </c>
       <c r="K58">
-        <v>845.2</v>
+        <v>1259.9000000000001</v>
       </c>
       <c r="L58">
-        <v>1846.9</v>
+        <v>3749.9</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -3002,13 +3002,13 @@
         <v>1500</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D59" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E59">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F59" t="s">
         <v>11</v>
@@ -3017,21 +3017,21 @@
         <v>0.4</v>
       </c>
       <c r="I59">
-        <v>387.72</v>
+        <v>255.68</v>
       </c>
       <c r="J59">
-        <v>9.8143568306843196</v>
+        <v>20.168728269278599</v>
       </c>
       <c r="K59">
-        <v>1662.94</v>
+        <v>1972.68</v>
       </c>
       <c r="L59">
-        <v>3280.18</v>
+        <v>3078.22</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B60">
         <v>1500</v>
@@ -3040,7 +3040,7 @@
         <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E60">
         <v>0.7</v>
@@ -3052,16 +3052,16 @@
         <v>0.4</v>
       </c>
       <c r="I60">
-        <v>387.84</v>
+        <v>260.39999999999998</v>
       </c>
       <c r="J60">
-        <v>7.6612270557659299</v>
+        <v>29.12868002502</v>
       </c>
       <c r="K60">
-        <v>1472.02</v>
+        <v>1477.42</v>
       </c>
       <c r="L60">
-        <v>3266.66</v>
+        <v>2010.12</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -3072,13 +3072,13 @@
         <v>1500</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D61" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E61">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F61" t="s">
         <v>11</v>
@@ -3087,16 +3087,16 @@
         <v>0.2</v>
       </c>
       <c r="I61">
-        <v>388.88</v>
+        <v>265.12</v>
       </c>
       <c r="J61">
-        <v>10.500742830866701</v>
+        <v>21.544966929656599</v>
       </c>
       <c r="K61">
-        <v>1640.02</v>
+        <v>522.36</v>
       </c>
       <c r="L61">
-        <v>3278.44</v>
+        <v>3057.56</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -3110,10 +3110,10 @@
         <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E62">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F62" t="s">
         <v>11</v>
@@ -3122,21 +3122,21 @@
         <v>0.2</v>
       </c>
       <c r="I62">
-        <v>389.12</v>
+        <v>269.72000000000003</v>
       </c>
       <c r="J62">
-        <v>10.0571168830833</v>
+        <v>19.233346042745598</v>
       </c>
       <c r="K62">
-        <v>1675.24</v>
+        <v>870.26</v>
       </c>
       <c r="L62">
-        <v>3258.16</v>
+        <v>3526.72</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B63">
         <v>1500</v>
@@ -3145,7 +3145,7 @@
         <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E63">
         <v>0.8</v>
@@ -3157,51 +3157,51 @@
         <v>0.2</v>
       </c>
       <c r="I63">
-        <v>394.92</v>
+        <v>269.92</v>
       </c>
       <c r="J63">
-        <v>11.3363839031677</v>
+        <v>20.845949246796099</v>
       </c>
       <c r="K63">
-        <v>927.92</v>
+        <v>881.24</v>
       </c>
       <c r="L63">
-        <v>1815.8</v>
+        <v>3554.2</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B64">
         <v>1500</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D64" t="s">
         <v>15</v>
       </c>
       <c r="E64">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F64" t="s">
         <v>11</v>
       </c>
       <c r="G64">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I64">
-        <v>395.12</v>
+        <v>270.24</v>
       </c>
       <c r="J64">
-        <v>9.7172835710397898</v>
+        <v>23.0742800537741</v>
       </c>
       <c r="K64">
-        <v>902.82</v>
+        <v>1828.82</v>
       </c>
       <c r="L64">
-        <v>1811.48</v>
+        <v>2855.64</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -3215,7 +3215,7 @@
         <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E65">
         <v>0.8</v>
@@ -3227,27 +3227,27 @@
         <v>0.4</v>
       </c>
       <c r="I65">
-        <v>395.52</v>
+        <v>272.76</v>
       </c>
       <c r="J65">
-        <v>10.480915990503799</v>
+        <v>18.6499973190346</v>
       </c>
       <c r="K65">
-        <v>902.02</v>
+        <v>921.28</v>
       </c>
       <c r="L65">
-        <v>1812.3</v>
+        <v>1871.3</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B66">
         <v>1500</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D66" t="s">
         <v>15</v>
@@ -3262,21 +3262,21 @@
         <v>0.2</v>
       </c>
       <c r="I66">
-        <v>397.08</v>
+        <v>273.12</v>
       </c>
       <c r="J66">
-        <v>10.9705788361416</v>
+        <v>20.3810107698318</v>
       </c>
       <c r="K66">
-        <v>938.3</v>
+        <v>1506.6</v>
       </c>
       <c r="L66">
-        <v>1801.14</v>
+        <v>2951.94</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B67">
         <v>1500</v>
@@ -3285,68 +3285,68 @@
         <v>16</v>
       </c>
       <c r="D67" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E67">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G67">
         <v>0.4</v>
       </c>
       <c r="I67">
-        <v>185.72</v>
+        <v>274</v>
       </c>
       <c r="J67">
-        <v>13.954268164257099</v>
+        <v>19.2416215532891</v>
       </c>
       <c r="K67">
-        <v>1792.04</v>
+        <v>928.08</v>
       </c>
       <c r="L67">
-        <v>3370.94</v>
+        <v>1721.38</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B68">
         <v>1500</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D68" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E68">
         <v>0.8</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G68">
         <v>0.4</v>
       </c>
       <c r="I68">
-        <v>186.72</v>
+        <v>275.12</v>
       </c>
       <c r="J68">
-        <v>13.645570709941</v>
+        <v>21.279699245994902</v>
       </c>
       <c r="K68">
-        <v>1953.2</v>
+        <v>1004.9</v>
       </c>
       <c r="L68">
-        <v>3542.4</v>
+        <v>1715.86</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B69">
         <v>1500</v>
@@ -3361,22 +3361,22 @@
         <v>0.7</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G69">
         <v>0.4</v>
       </c>
       <c r="I69">
-        <v>188.72</v>
+        <v>276.39999999999998</v>
       </c>
       <c r="J69">
-        <v>14.393109462517099</v>
+        <v>22.385709727413101</v>
       </c>
       <c r="K69">
-        <v>2309.66</v>
+        <v>818.78</v>
       </c>
       <c r="L69">
-        <v>3533.9</v>
+        <v>1834.86</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -3390,28 +3390,28 @@
         <v>16</v>
       </c>
       <c r="D70" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E70">
         <v>0.7</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G70">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I70">
-        <v>189.76</v>
+        <v>279.36</v>
       </c>
       <c r="J70">
-        <v>16.063075670617899</v>
+        <v>24.958974337900901</v>
       </c>
       <c r="K70">
-        <v>1891.22</v>
+        <v>753.08</v>
       </c>
       <c r="L70">
-        <v>3386.82</v>
+        <v>3044.62</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -3425,33 +3425,33 @@
         <v>16</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E71">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G71">
         <v>0.4</v>
       </c>
       <c r="I71">
-        <v>191.72</v>
+        <v>279.64</v>
       </c>
       <c r="J71">
-        <v>14.718749946921401</v>
+        <v>20.714014579506301</v>
       </c>
       <c r="K71">
-        <v>1581.36</v>
+        <v>330.4</v>
       </c>
       <c r="L71">
-        <v>3092.86</v>
+        <v>3377.9</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B72">
         <v>1500</v>
@@ -3460,39 +3460,39 @@
         <v>16</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E72">
         <v>0.8</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G72">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I72">
-        <v>192.04</v>
+        <v>281.2</v>
       </c>
       <c r="J72">
-        <v>14.634151837397299</v>
+        <v>24.25860672009</v>
       </c>
       <c r="K72">
-        <v>1085.6199999999999</v>
+        <v>788.86</v>
       </c>
       <c r="L72">
-        <v>3093</v>
+        <v>1496.78</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B73">
         <v>1500</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D73" t="s">
         <v>14</v>
@@ -3501,22 +3501,22 @@
         <v>0.7</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G73">
         <v>0.4</v>
       </c>
       <c r="I73">
-        <v>192.08</v>
+        <v>285.27999999999997</v>
       </c>
       <c r="J73">
-        <v>16.9042479868227</v>
+        <v>21.3869492915656</v>
       </c>
       <c r="K73">
-        <v>1161.1600000000001</v>
+        <v>829.9</v>
       </c>
       <c r="L73">
-        <v>1830.54</v>
+        <v>3359.98</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -3530,28 +3530,28 @@
         <v>16</v>
       </c>
       <c r="D74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E74">
         <v>0.7</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G74">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I74">
-        <v>193.2</v>
+        <v>288.83999999999997</v>
       </c>
       <c r="J74">
-        <v>16.965848048358701</v>
+        <v>21.792071952891401</v>
       </c>
       <c r="K74">
-        <v>883.72</v>
+        <v>829.54</v>
       </c>
       <c r="L74">
-        <v>1655.18</v>
+        <v>1502.26</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -3562,7 +3562,7 @@
         <v>1500</v>
       </c>
       <c r="C75" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
         <v>14</v>
@@ -3571,57 +3571,57 @@
         <v>0.8</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G75">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I75">
-        <v>194.08</v>
+        <v>292.16000000000003</v>
       </c>
       <c r="J75">
-        <v>17.458338981701498</v>
+        <v>17.8564946168053</v>
       </c>
       <c r="K75">
-        <v>859.76</v>
+        <v>566.44000000000005</v>
       </c>
       <c r="L75">
-        <v>1696.12</v>
+        <v>1853.68</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B76">
         <v>1500</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D76" t="s">
         <v>10</v>
       </c>
       <c r="E76">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G76">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I76">
-        <v>194.52</v>
+        <v>293.76</v>
       </c>
       <c r="J76">
-        <v>14.515150705383601</v>
+        <v>25.548823847684201</v>
       </c>
       <c r="K76">
-        <v>2065.86</v>
+        <v>419.18</v>
       </c>
       <c r="L76">
-        <v>3143.32</v>
+        <v>1704.9</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -3638,25 +3638,25 @@
         <v>14</v>
       </c>
       <c r="E77">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G77">
         <v>0.2</v>
       </c>
       <c r="I77">
-        <v>194.92</v>
+        <v>296.60000000000002</v>
       </c>
       <c r="J77">
-        <v>14.506329652948001</v>
+        <v>20.739334608419799</v>
       </c>
       <c r="K77">
-        <v>1813.74</v>
+        <v>577.4</v>
       </c>
       <c r="L77">
-        <v>3357.82</v>
+        <v>3347.78</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -3667,31 +3667,31 @@
         <v>1500</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E78">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G78">
         <v>0.4</v>
       </c>
       <c r="I78">
-        <v>195.2</v>
+        <v>297</v>
       </c>
       <c r="J78">
-        <v>12.9367693030369</v>
+        <v>21.541587685219401</v>
       </c>
       <c r="K78">
-        <v>1984.82</v>
+        <v>955.72</v>
       </c>
       <c r="L78">
-        <v>3197.18</v>
+        <v>3029.7</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -3705,28 +3705,28 @@
         <v>16</v>
       </c>
       <c r="D79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E79">
         <v>0.8</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G79">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I79">
-        <v>195.24</v>
+        <v>300.08</v>
       </c>
       <c r="J79">
-        <v>18.632831239508299</v>
+        <v>22.768258607104698</v>
       </c>
       <c r="K79">
-        <v>1540.6</v>
+        <v>785.6</v>
       </c>
       <c r="L79">
-        <v>3360.16</v>
+        <v>3104.78</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -3737,66 +3737,66 @@
         <v>1500</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D80" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E80">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G80">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I80">
-        <v>195.32</v>
+        <v>300.32</v>
       </c>
       <c r="J80">
-        <v>12.004065977826</v>
+        <v>21.197584768081398</v>
       </c>
       <c r="K80">
-        <v>1215.1600000000001</v>
+        <v>542.88</v>
       </c>
       <c r="L80">
-        <v>1870.5</v>
+        <v>1703.5</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B81">
         <v>1500</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E81">
         <v>0.7</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G81">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I81">
-        <v>197.28</v>
+        <v>300.60000000000002</v>
       </c>
       <c r="J81">
-        <v>15.4078421591084</v>
+        <v>21.219802072592401</v>
       </c>
       <c r="K81">
-        <v>1005.92</v>
+        <v>736.28</v>
       </c>
       <c r="L81">
-        <v>1955.52</v>
+        <v>3280.46</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -3816,22 +3816,22 @@
         <v>0.7</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G82">
         <v>0.2</v>
       </c>
       <c r="I82">
-        <v>197.72</v>
+        <v>300.8</v>
       </c>
       <c r="J82">
-        <v>14.571259382771199</v>
+        <v>24</v>
       </c>
       <c r="K82">
-        <v>1082.32</v>
+        <v>585.78</v>
       </c>
       <c r="L82">
-        <v>1807.12</v>
+        <v>1840.34</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -3845,28 +3845,28 @@
         <v>16</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E83">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G83">
         <v>0.4</v>
       </c>
       <c r="I83">
-        <v>198.12</v>
+        <v>302.64</v>
       </c>
       <c r="J83">
-        <v>13.4902038531669</v>
+        <v>22.910050196365699</v>
       </c>
       <c r="K83">
-        <v>970.42</v>
+        <v>473.46</v>
       </c>
       <c r="L83">
-        <v>1708.48</v>
+        <v>1699.46</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -3877,31 +3877,31 @@
         <v>1500</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E84">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G84">
         <v>0.4</v>
       </c>
       <c r="I84">
-        <v>198.32</v>
+        <v>308.60000000000002</v>
       </c>
       <c r="J84">
-        <v>14.474031919268301</v>
+        <v>25.5601251953115</v>
       </c>
       <c r="K84">
-        <v>1122.2</v>
+        <v>602.28</v>
       </c>
       <c r="L84">
-        <v>1748.16</v>
+        <v>1683.9</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -3912,36 +3912,36 @@
         <v>1500</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E85">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G85">
         <v>0.2</v>
       </c>
       <c r="I85">
-        <v>198.6</v>
+        <v>309.36</v>
       </c>
       <c r="J85">
-        <v>12.2392810246353</v>
+        <v>26.768459051652499</v>
       </c>
       <c r="K85">
-        <v>1505.68</v>
+        <v>827.58</v>
       </c>
       <c r="L85">
-        <v>3106.38</v>
+        <v>2976.62</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B86">
         <v>1500</v>
@@ -3950,33 +3950,33 @@
         <v>16</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E86">
         <v>0.8</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G86">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I86">
-        <v>199.4</v>
+        <v>310.56</v>
       </c>
       <c r="J86">
-        <v>16.2</v>
+        <v>21.402953067275501</v>
       </c>
       <c r="K86">
-        <v>840.32</v>
+        <v>612.88</v>
       </c>
       <c r="L86">
-        <v>1734.46</v>
+        <v>3045.44</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B87">
         <v>1500</v>
@@ -3985,98 +3985,98 @@
         <v>16</v>
       </c>
       <c r="D87" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E87">
         <v>0.7</v>
       </c>
       <c r="F87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G87">
         <v>0.4</v>
       </c>
       <c r="I87">
-        <v>199.64</v>
+        <v>313.83999999999997</v>
       </c>
       <c r="J87">
-        <v>15.741359534678001</v>
+        <v>18.760980784596502</v>
       </c>
       <c r="K87">
-        <v>1816.4</v>
+        <v>305.48</v>
       </c>
       <c r="L87">
-        <v>3026.68</v>
+        <v>1661.58</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B88">
         <v>1500</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D88" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E88">
         <v>0.8</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G88">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I88">
-        <v>199.68</v>
+        <v>315.12</v>
       </c>
       <c r="J88">
-        <v>14.818151031758299</v>
+        <v>24.387406586187002</v>
       </c>
       <c r="K88">
-        <v>1867.32</v>
+        <v>396.06</v>
       </c>
       <c r="L88">
-        <v>3526.36</v>
+        <v>1545.7</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B89">
         <v>1500</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D89" t="s">
         <v>14</v>
       </c>
       <c r="E89">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G89">
         <v>0.2</v>
       </c>
       <c r="I89">
-        <v>199.76</v>
+        <v>315.72000000000003</v>
       </c>
       <c r="J89">
-        <v>15.417600332088</v>
+        <v>18.3521551867893</v>
       </c>
       <c r="K89">
-        <v>2007.86</v>
+        <v>335.7</v>
       </c>
       <c r="L89">
-        <v>3562.9</v>
+        <v>1687.52</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -4087,31 +4087,31 @@
         <v>1500</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E90">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F90" t="s">
         <v>12</v>
       </c>
       <c r="G90">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I90">
-        <v>200.16</v>
+        <v>316.16000000000003</v>
       </c>
       <c r="J90">
-        <v>15.429011633931699</v>
+        <v>15.288374668355001</v>
       </c>
       <c r="K90">
-        <v>1386.5</v>
+        <v>1774.2</v>
       </c>
       <c r="L90">
-        <v>3113.14</v>
+        <v>3187.52</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -4122,31 +4122,31 @@
         <v>1500</v>
       </c>
       <c r="C91" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E91">
         <v>0.7</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G91">
         <v>0.4</v>
       </c>
       <c r="I91">
-        <v>200.16</v>
+        <v>318.52</v>
       </c>
       <c r="J91">
-        <v>14.597753251785001</v>
+        <v>33.834443988338201</v>
       </c>
       <c r="K91">
-        <v>1610.66</v>
+        <v>1858.64</v>
       </c>
       <c r="L91">
-        <v>3022.9</v>
+        <v>3453.52</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -4157,31 +4157,31 @@
         <v>1500</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D92" t="s">
         <v>14</v>
       </c>
       <c r="E92">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G92">
         <v>0.2</v>
       </c>
       <c r="I92">
-        <v>200.72</v>
+        <v>321.04000000000002</v>
       </c>
       <c r="J92">
-        <v>17.475743188774501</v>
+        <v>22.131389472873099</v>
       </c>
       <c r="K92">
-        <v>1115.8399999999999</v>
+        <v>379.74</v>
       </c>
       <c r="L92">
-        <v>1833.54</v>
+        <v>1647.16</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -4195,28 +4195,28 @@
         <v>16</v>
       </c>
       <c r="D93" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E93">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G93">
         <v>0.2</v>
       </c>
       <c r="I93">
-        <v>201.76</v>
+        <v>321.92</v>
       </c>
       <c r="J93">
-        <v>17.267958767613401</v>
+        <v>23.385328734058799</v>
       </c>
       <c r="K93">
-        <v>974.52</v>
+        <v>331.7</v>
       </c>
       <c r="L93">
-        <v>1641.7</v>
+        <v>1528.52</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -4233,60 +4233,60 @@
         <v>13</v>
       </c>
       <c r="E94">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G94">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I94">
-        <v>203.44</v>
+        <v>323.2</v>
       </c>
       <c r="J94">
-        <v>17.591088653065199</v>
+        <v>27.724357521861499</v>
       </c>
       <c r="K94">
-        <v>758.72</v>
+        <v>449.6</v>
       </c>
       <c r="L94">
-        <v>1554.52</v>
+        <v>1658.98</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B95">
         <v>1500</v>
       </c>
       <c r="C95" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
         <v>10</v>
       </c>
       <c r="E95">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G95">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I95">
-        <v>203.68</v>
+        <v>332.68</v>
       </c>
       <c r="J95">
-        <v>16.2547716071312</v>
+        <v>24.568630405457998</v>
       </c>
       <c r="K95">
-        <v>1139.8</v>
+        <v>1058.1199999999999</v>
       </c>
       <c r="L95">
-        <v>3059.44</v>
+        <v>1927.74</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -4297,66 +4297,66 @@
         <v>1500</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E96">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G96">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I96">
-        <v>204.24</v>
+        <v>334.32</v>
       </c>
       <c r="J96">
-        <v>17.277221998921</v>
+        <v>27.534298611005099</v>
       </c>
       <c r="K96">
-        <v>947.96</v>
+        <v>901.42</v>
       </c>
       <c r="L96">
-        <v>1970.62</v>
+        <v>1645.88</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B97">
         <v>1500</v>
       </c>
       <c r="C97" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E97">
         <v>0.8</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G97">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I97">
-        <v>204.28</v>
+        <v>352.28</v>
       </c>
       <c r="J97">
-        <v>14.8862889935672</v>
+        <v>8.5604672769656602</v>
       </c>
       <c r="K97">
-        <v>862</v>
+        <v>1969.94</v>
       </c>
       <c r="L97">
-        <v>1684.96</v>
+        <v>3511.44</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -4367,13 +4367,13 @@
         <v>1500</v>
       </c>
       <c r="C98" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E98">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F98" t="s">
         <v>12</v>
@@ -4382,16 +4382,16 @@
         <v>0.2</v>
       </c>
       <c r="I98">
-        <v>204.56</v>
+        <v>369.04</v>
       </c>
       <c r="J98">
-        <v>18.3304773533042</v>
+        <v>10.136981799332499</v>
       </c>
       <c r="K98">
-        <v>1062.08</v>
+        <v>1658.04</v>
       </c>
       <c r="L98">
-        <v>3111.08</v>
+        <v>3326.4</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -4402,101 +4402,101 @@
         <v>1500</v>
       </c>
       <c r="C99" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E99">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G99">
         <v>0.2</v>
       </c>
       <c r="I99">
-        <v>204.88</v>
+        <v>369.32</v>
       </c>
       <c r="J99">
-        <v>15.079310329056799</v>
+        <v>15.0232353373033</v>
       </c>
       <c r="K99">
-        <v>666.6</v>
+        <v>945.64</v>
       </c>
       <c r="L99">
-        <v>1714.78</v>
+        <v>1830.62</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B100">
         <v>1500</v>
       </c>
       <c r="C100" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E100">
         <v>0.7</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G100">
         <v>0.2</v>
       </c>
       <c r="I100">
-        <v>206.04</v>
+        <v>371.2</v>
       </c>
       <c r="J100">
-        <v>16.126946394156501</v>
+        <v>11.530828244319601</v>
       </c>
       <c r="K100">
-        <v>759.94</v>
+        <v>1752.16</v>
       </c>
       <c r="L100">
-        <v>1709.44</v>
+        <v>3309.08</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B101">
         <v>1500</v>
       </c>
       <c r="C101" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E101">
         <v>0.7</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G101">
         <v>0.4</v>
       </c>
       <c r="I101">
-        <v>206.56</v>
+        <v>371.92</v>
       </c>
       <c r="J101">
-        <v>18.387125930933301</v>
+        <v>9.6826442669345205</v>
       </c>
       <c r="K101">
-        <v>812.32</v>
+        <v>1715.4</v>
       </c>
       <c r="L101">
-        <v>1524.52</v>
+        <v>3315.86</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -4507,7 +4507,7 @@
         <v>1500</v>
       </c>
       <c r="C102" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
         <v>13</v>
@@ -4519,19 +4519,19 @@
         <v>12</v>
       </c>
       <c r="G102">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I102">
-        <v>207</v>
+        <v>372.68</v>
       </c>
       <c r="J102">
-        <v>17.349351572897401</v>
+        <v>9.3175962565459898</v>
       </c>
       <c r="K102">
-        <v>871.16</v>
+        <v>933.16</v>
       </c>
       <c r="L102">
-        <v>1674.38</v>
+        <v>1836.12</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -4542,13 +4542,13 @@
         <v>1500</v>
       </c>
       <c r="C103" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
         <v>13</v>
       </c>
       <c r="E103">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F103" t="s">
         <v>12</v>
@@ -4557,100 +4557,100 @@
         <v>0.4</v>
       </c>
       <c r="I103">
-        <v>207.08</v>
+        <v>374.04</v>
       </c>
       <c r="J103">
-        <v>18.234955442775199</v>
+        <v>9.6456415027721096</v>
       </c>
       <c r="K103">
-        <v>1276.96</v>
+        <v>1844.36</v>
       </c>
       <c r="L103">
-        <v>3094.68</v>
+        <v>3317.6</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B104">
         <v>1500</v>
       </c>
       <c r="C104" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
         <v>13</v>
       </c>
       <c r="E104">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G104">
         <v>0.2</v>
       </c>
       <c r="I104">
-        <v>209.08</v>
+        <v>375.04</v>
       </c>
       <c r="J104">
-        <v>15.5805519799524</v>
+        <v>10.0974452214409</v>
       </c>
       <c r="K104">
-        <v>627.1</v>
+        <v>1466.84</v>
       </c>
       <c r="L104">
-        <v>1657.74</v>
+        <v>3325.14</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B105">
         <v>1500</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E105">
         <v>0.8</v>
       </c>
       <c r="F105" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G105">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I105">
-        <v>209.4</v>
+        <v>375.88</v>
       </c>
       <c r="J105">
-        <v>18.522418848519699</v>
+        <v>13.1782244631057</v>
       </c>
       <c r="K105">
-        <v>791.68</v>
+        <v>1881.68</v>
       </c>
       <c r="L105">
-        <v>1733.7</v>
+        <v>3182.72</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B106">
         <v>1500</v>
       </c>
       <c r="C106" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E106">
         <v>0.7</v>
@@ -4659,68 +4659,68 @@
         <v>12</v>
       </c>
       <c r="G106">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I106">
-        <v>210.12</v>
+        <v>375.92</v>
       </c>
       <c r="J106">
-        <v>17.5426793848602</v>
+        <v>9.37195817318878</v>
       </c>
       <c r="K106">
-        <v>1023.88</v>
+        <v>959.74</v>
       </c>
       <c r="L106">
-        <v>2943.18</v>
+        <v>1836.22</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B107">
         <v>1500</v>
       </c>
       <c r="C107" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
         <v>13</v>
       </c>
       <c r="E107">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G107">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I107">
-        <v>211</v>
+        <v>376.44</v>
       </c>
       <c r="J107">
-        <v>16.546903033498399</v>
+        <v>10.978451621244201</v>
       </c>
       <c r="K107">
-        <v>1037.98</v>
+        <v>882.8</v>
       </c>
       <c r="L107">
-        <v>3016.46</v>
+        <v>1832.98</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B108">
         <v>1500</v>
       </c>
       <c r="C108" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E108">
         <v>0.8</v>
@@ -4732,30 +4732,30 @@
         <v>0.2</v>
       </c>
       <c r="I108">
-        <v>211.36</v>
+        <v>376.84</v>
       </c>
       <c r="J108">
-        <v>17.7197742649278</v>
+        <v>11.2220497236467</v>
       </c>
       <c r="K108">
-        <v>1622.46</v>
+        <v>957.4</v>
       </c>
       <c r="L108">
-        <v>2874.72</v>
+        <v>1860.44</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B109">
         <v>1500</v>
       </c>
       <c r="C109" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E109">
         <v>0.8</v>
@@ -4764,19 +4764,19 @@
         <v>12</v>
       </c>
       <c r="G109">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I109">
-        <v>212.16</v>
+        <v>376.92</v>
       </c>
       <c r="J109">
-        <v>18.0126177997535</v>
+        <v>10.9924337614561</v>
       </c>
       <c r="K109">
-        <v>779.58</v>
+        <v>1469.18</v>
       </c>
       <c r="L109">
-        <v>1491.16</v>
+        <v>3412.26</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
@@ -4787,13 +4787,13 @@
         <v>1500</v>
       </c>
       <c r="C110" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
         <v>13</v>
       </c>
       <c r="E110">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F110" t="s">
         <v>12</v>
@@ -4802,27 +4802,27 @@
         <v>0.2</v>
       </c>
       <c r="I110">
-        <v>212.84</v>
+        <v>379.24</v>
       </c>
       <c r="J110">
-        <v>18.339422019245799</v>
+        <v>8.7716817087717001</v>
       </c>
       <c r="K110">
-        <v>1144.54</v>
+        <v>1607.24</v>
       </c>
       <c r="L110">
-        <v>3008.32</v>
+        <v>3344.04</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B111">
         <v>1500</v>
       </c>
       <c r="C111" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
         <v>13</v>
@@ -4831,22 +4831,22 @@
         <v>0.8</v>
       </c>
       <c r="F111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G111">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I111">
-        <v>214.32</v>
+        <v>380</v>
       </c>
       <c r="J111">
-        <v>15.1121672833515</v>
+        <v>10.537551897855501</v>
       </c>
       <c r="K111">
-        <v>536.55999999999995</v>
+        <v>1615.66</v>
       </c>
       <c r="L111">
-        <v>1526</v>
+        <v>3338.38</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
@@ -4857,31 +4857,31 @@
         <v>1500</v>
       </c>
       <c r="C112" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E112">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F112" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G112">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I112">
-        <v>215.24</v>
+        <v>380.96</v>
       </c>
       <c r="J112">
-        <v>19.2826969068125</v>
+        <v>10.285834919927501</v>
       </c>
       <c r="K112">
-        <v>530.52</v>
+        <v>816</v>
       </c>
       <c r="L112">
-        <v>1498.6</v>
+        <v>1863.7</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
@@ -4892,45 +4892,45 @@
         <v>1500</v>
       </c>
       <c r="C113" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E113">
         <v>0.8</v>
       </c>
       <c r="F113" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G113">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I113">
-        <v>230.04</v>
+        <v>381.04</v>
       </c>
       <c r="J113">
-        <v>18.9672981734352</v>
+        <v>10.160629901733399</v>
       </c>
       <c r="K113">
-        <v>1007.06</v>
+        <v>845.2</v>
       </c>
       <c r="L113">
-        <v>1591.08</v>
+        <v>1846.9</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B114">
         <v>1500</v>
       </c>
       <c r="C114" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E114">
         <v>0.8</v>
@@ -4942,16 +4942,16 @@
         <v>0.4</v>
       </c>
       <c r="I114">
-        <v>316.16000000000003</v>
+        <v>381.84</v>
       </c>
       <c r="J114">
-        <v>15.288374668355001</v>
+        <v>10.6571290693131</v>
       </c>
       <c r="K114">
-        <v>1774.2</v>
+        <v>967.58</v>
       </c>
       <c r="L114">
-        <v>3187.52</v>
+        <v>1859.28</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
@@ -4965,33 +4965,33 @@
         <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E115">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F115" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G115">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I115">
-        <v>369.04</v>
+        <v>387.72</v>
       </c>
       <c r="J115">
-        <v>10.136981799332499</v>
+        <v>9.8143568306843196</v>
       </c>
       <c r="K115">
-        <v>1658.04</v>
+        <v>1662.94</v>
       </c>
       <c r="L115">
-        <v>3326.4</v>
+        <v>3280.18</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B116">
         <v>1500</v>
@@ -5000,28 +5000,28 @@
         <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E116">
         <v>0.7</v>
       </c>
       <c r="F116" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G116">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I116">
-        <v>372.68</v>
+        <v>387.84</v>
       </c>
       <c r="J116">
-        <v>9.3175962565459898</v>
+        <v>7.6612270557659299</v>
       </c>
       <c r="K116">
-        <v>933.16</v>
+        <v>1472.02</v>
       </c>
       <c r="L116">
-        <v>1836.12</v>
+        <v>3266.66</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
@@ -5035,33 +5035,33 @@
         <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E117">
         <v>0.7</v>
       </c>
       <c r="F117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G117">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I117">
-        <v>374.04</v>
+        <v>388.88</v>
       </c>
       <c r="J117">
-        <v>9.6456415027721096</v>
+        <v>10.500742830866701</v>
       </c>
       <c r="K117">
-        <v>1844.36</v>
+        <v>1640.02</v>
       </c>
       <c r="L117">
-        <v>3317.6</v>
+        <v>3278.44</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B118">
         <v>1500</v>
@@ -5070,7 +5070,7 @@
         <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E118">
         <v>0.7</v>
@@ -5082,21 +5082,21 @@
         <v>0.4</v>
       </c>
       <c r="I118">
-        <v>375.92</v>
+        <v>388.96</v>
       </c>
       <c r="J118">
-        <v>9.37195817318878</v>
+        <v>11.7931505544532</v>
       </c>
       <c r="K118">
-        <v>959.74</v>
+        <v>1557.74</v>
       </c>
       <c r="L118">
-        <v>1836.22</v>
+        <v>3261.94</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B119">
         <v>1500</v>
@@ -5105,28 +5105,28 @@
         <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E119">
         <v>0.8</v>
       </c>
       <c r="F119" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G119">
         <v>0.2</v>
       </c>
       <c r="I119">
-        <v>376.84</v>
+        <v>389.12</v>
       </c>
       <c r="J119">
-        <v>11.2220497236467</v>
+        <v>10.0571168830833</v>
       </c>
       <c r="K119">
-        <v>957.4</v>
+        <v>1675.24</v>
       </c>
       <c r="L119">
-        <v>1860.44</v>
+        <v>3258.16</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
@@ -5140,7 +5140,7 @@
         <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E120">
         <v>0.8</v>
@@ -5152,16 +5152,16 @@
         <v>0.4</v>
       </c>
       <c r="I120">
-        <v>376.92</v>
+        <v>390.64</v>
       </c>
       <c r="J120">
-        <v>10.9924337614561</v>
+        <v>10.0831741034259</v>
       </c>
       <c r="K120">
-        <v>1469.18</v>
+        <v>1543.26</v>
       </c>
       <c r="L120">
-        <v>3412.26</v>
+        <v>3291.2</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
@@ -5175,10 +5175,10 @@
         <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E121">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F121" t="s">
         <v>12</v>
@@ -5187,21 +5187,21 @@
         <v>0.2</v>
       </c>
       <c r="I121">
-        <v>379.24</v>
+        <v>390.68</v>
       </c>
       <c r="J121">
-        <v>8.7716817087717001</v>
+        <v>9.4030633306385791</v>
       </c>
       <c r="K121">
-        <v>1607.24</v>
+        <v>1608.22</v>
       </c>
       <c r="L121">
-        <v>3344.04</v>
+        <v>3252.08</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B122">
         <v>1500</v>
@@ -5210,7 +5210,7 @@
         <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E122">
         <v>0.8</v>
@@ -5219,24 +5219,24 @@
         <v>12</v>
       </c>
       <c r="G122">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I122">
-        <v>381.84</v>
+        <v>393.32</v>
       </c>
       <c r="J122">
-        <v>10.6571290693131</v>
+        <v>9.7127545011700995</v>
       </c>
       <c r="K122">
-        <v>967.58</v>
+        <v>1577.06</v>
       </c>
       <c r="L122">
-        <v>1859.28</v>
+        <v>3275</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B123">
         <v>1500</v>
@@ -5248,7 +5248,7 @@
         <v>15</v>
       </c>
       <c r="E123">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F123" t="s">
         <v>12</v>
@@ -5257,21 +5257,21 @@
         <v>0.4</v>
       </c>
       <c r="I123">
-        <v>388.96</v>
+        <v>394</v>
       </c>
       <c r="J123">
-        <v>11.7931505544532</v>
+        <v>11.959933110180801</v>
       </c>
       <c r="K123">
-        <v>1557.74</v>
+        <v>913.38</v>
       </c>
       <c r="L123">
-        <v>3261.94</v>
+        <v>1809.54</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B124">
         <v>1500</v>
@@ -5283,30 +5283,30 @@
         <v>15</v>
       </c>
       <c r="E124">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F124" t="s">
         <v>12</v>
       </c>
       <c r="G124">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I124">
-        <v>390.64</v>
+        <v>394.24</v>
       </c>
       <c r="J124">
-        <v>10.0831741034259</v>
+        <v>15.055311355133099</v>
       </c>
       <c r="K124">
-        <v>1543.26</v>
+        <v>887.06</v>
       </c>
       <c r="L124">
-        <v>3291.2</v>
+        <v>1805.24</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B125">
         <v>1500</v>
@@ -5318,30 +5318,30 @@
         <v>15</v>
       </c>
       <c r="E125">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F125" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G125">
         <v>0.2</v>
       </c>
       <c r="I125">
-        <v>390.68</v>
+        <v>394.92</v>
       </c>
       <c r="J125">
-        <v>9.4030633306385791</v>
+        <v>11.3363839031677</v>
       </c>
       <c r="K125">
-        <v>1608.22</v>
+        <v>927.92</v>
       </c>
       <c r="L125">
-        <v>3252.08</v>
+        <v>1815.8</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B126">
         <v>1500</v>
@@ -5353,25 +5353,25 @@
         <v>15</v>
       </c>
       <c r="E126">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F126" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G126">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I126">
-        <v>393.32</v>
+        <v>395.12</v>
       </c>
       <c r="J126">
-        <v>9.7127545011700995</v>
+        <v>9.7172835710397898</v>
       </c>
       <c r="K126">
-        <v>1577.06</v>
+        <v>902.82</v>
       </c>
       <c r="L126">
-        <v>3275</v>
+        <v>1811.48</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
@@ -5391,22 +5391,22 @@
         <v>0.8</v>
       </c>
       <c r="F127" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G127">
         <v>0.4</v>
       </c>
       <c r="I127">
-        <v>394</v>
+        <v>395.52</v>
       </c>
       <c r="J127">
-        <v>11.959933110180801</v>
+        <v>10.480915990503799</v>
       </c>
       <c r="K127">
-        <v>913.38</v>
+        <v>902.02</v>
       </c>
       <c r="L127">
-        <v>1809.54</v>
+        <v>1812.3</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
@@ -5426,22 +5426,22 @@
         <v>0.7</v>
       </c>
       <c r="F128" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G128">
         <v>0.2</v>
       </c>
       <c r="I128">
-        <v>394.24</v>
+        <v>397.08</v>
       </c>
       <c r="J128">
-        <v>15.055311355133099</v>
+        <v>10.9705788361416</v>
       </c>
       <c r="K128">
-        <v>887.06</v>
+        <v>938.3</v>
       </c>
       <c r="L128">
-        <v>1805.24</v>
+        <v>1801.14</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
